--- a/data/trans_dic/P22$concerIndv-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,96</t>
+          <t>0,82; 3,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,17</t>
+          <t>0,42; 2,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 6,51</t>
+          <t>2,24; 6,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 8,92</t>
+          <t>1,31; 8,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,69</t>
+          <t>1,6; 4,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,93</t>
+          <t>2,0; 5,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,64</t>
+          <t>1,49; 4,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,1</t>
+          <t>2,45; 9,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,26</t>
+          <t>1,4; 3,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,49</t>
+          <t>1,32; 3,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,72</t>
+          <t>2,22; 4,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,81</t>
+          <t>2,44; 7,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,04</t>
+          <t>1,05; 2,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,09</t>
+          <t>2,7; 6,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,29</t>
+          <t>1,47; 4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,58</t>
+          <t>1,75; 6,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,2</t>
+          <t>3,66; 7,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,38</t>
+          <t>3,07; 6,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,1</t>
+          <t>6,41; 10,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 12,65</t>
+          <t>5,76; 12,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,42</t>
+          <t>2,55; 4,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,59</t>
+          <t>3,1; 5,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,74</t>
+          <t>4,2; 7,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,89</t>
+          <t>4,82; 8,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,92</t>
+          <t>2,71; 5,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,6</t>
+          <t>3,84; 7,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,39</t>
+          <t>3,92; 7,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,73</t>
+          <t>6,46; 11,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,06</t>
+          <t>2,87; 6,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,12; 5,08</t>
+          <t>2,17; 4,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,51</t>
+          <t>3,76; 7,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,88; 10,95</t>
+          <t>6,98; 10,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,33</t>
+          <t>3,2; 5,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 5,64</t>
+          <t>3,27; 5,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,87</t>
+          <t>4,28; 6,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,6</t>
+          <t>7,31; 10,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,35</t>
+          <t>2,54; 6,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,75</t>
+          <t>1,67; 4,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,61</t>
+          <t>2,28; 5,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,5</t>
+          <t>2,81; 9,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,68</t>
+          <t>2,38; 6,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,37</t>
+          <t>2,79; 6,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,98</t>
+          <t>2,67; 5,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,32</t>
+          <t>9,0; 13,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,34</t>
+          <t>2,88; 5,36</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,73</t>
+          <t>2,54; 4,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,15</t>
+          <t>2,89; 5,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 10,89</t>
+          <t>5,1; 10,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,81</t>
+          <t>2,4; 6,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,37</t>
+          <t>1,44; 5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,09</t>
+          <t>1,08; 3,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 8,94</t>
+          <t>4,92; 9,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,81</t>
+          <t>3,75; 8,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,35</t>
+          <t>2,21; 6,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,89</t>
+          <t>1,88; 5,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,9</t>
+          <t>7,32; 10,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 7,01</t>
+          <t>3,71; 6,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,91</t>
+          <t>2,11; 5,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,34</t>
+          <t>1,86; 4,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,22</t>
+          <t>6,7; 9,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,06</t>
+          <t>0,0; 3,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 6,03</t>
+          <t>1,36; 5,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,0</t>
+          <t>1,05; 4,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,78</t>
+          <t>5,39; 9,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,93</t>
+          <t>1,42; 4,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,74</t>
+          <t>0,53; 3,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,98</t>
+          <t>1,55; 5,92</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,37</t>
+          <t>1,6; 6,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,42</t>
+          <t>0,99; 3,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,74</t>
+          <t>1,26; 3,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,38</t>
+          <t>1,69; 4,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,05</t>
+          <t>2,56; 7,06</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,55</t>
+          <t>0,46; 5,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,22</t>
+          <t>0,42; 4,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,23</t>
+          <t>1,96; 5,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,88</t>
+          <t>0,34; 2,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,67</t>
+          <t>0,27; 3,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 4,12</t>
+          <t>0,67; 4,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,55</t>
+          <t>2,75; 5,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,99</t>
+          <t>0,61; 2,97</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,67</t>
+          <t>0,51; 3,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,98</t>
+          <t>0,68; 3,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,79</t>
+          <t>2,75; 4,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>2,31; 3,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,93</t>
+          <t>2,66; 3,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,99</t>
+          <t>2,75; 4,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,58; 6,99</t>
+          <t>4,66; 7,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,3; 4,62</t>
+          <t>3,28; 4,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,01</t>
+          <t>2,71; 4,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 5,16</t>
+          <t>3,77; 5,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,38; 8,7</t>
+          <t>6,27; 8,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 3,85</t>
+          <t>2,9; 3,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,89; 3,81</t>
+          <t>2,87; 3,74</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,45</t>
+          <t>3,48; 4,45</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,98; 7,68</t>
+          <t>5,97; 7,6</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menor, es beneficiaria de Seguro Médico concertado individualmente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8174</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4834</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16403</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15594</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12954</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15213</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10992</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16650</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21128</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20047</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>27394</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32245</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4040; 15755</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1884; 10668</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9354; 25998</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5251; 34752</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7501; 21938</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8617; 24378</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5891; 19328</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7674; 30982</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13468; 31501</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11686; 29835</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18068; 39386</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17404; 54324</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13378</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>28114</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15542</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>14701</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>32789</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26646</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>47112</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47885</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46167</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>62655</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62587</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7662; 21632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18583; 42998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8680; 25278</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7427; 27131</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22923; 45457</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18720; 39529</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36021; 61292</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29454; 66084</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34655; 61368</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40256; 71452</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48370; 80787</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>45050; 83837</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>26213</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36015</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>36762</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46693</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29477</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>24044</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35684</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>48137</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>55690</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60058</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>72446</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>94830</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17296; 36697</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>26190; 51638</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>26223; 50050</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34644; 62046</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19825; 42639</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15401; 35246</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24851; 49985</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37858; 58680</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>42475; 70756</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45483; 76998</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>56921; 90835</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>78834; 114359</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>21607</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17325</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24039</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>56341</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19765</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26017</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>27096</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>80005</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41372</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43341</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51135</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>136346</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13178; 32895</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10292; 27639</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14755; 35569</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24952; 84846</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12261; 30944</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17221; 39013</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17285; 38675</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64170; 93577</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29785; 55366</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31264; 58863</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37444; 67686</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>81653; 169949</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16128</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11097</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37889</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24432</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16978</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17467</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48840</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>40559</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29366</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28564</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>86729</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9265; 25518</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6198; 24124</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5157; 19000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>27616; 51675</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15120; 36031</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9888; 28683</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9342; 28961</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39936; 59416</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29273; 54589</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18481; 44633</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18135; 42911</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>74124; 102928</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2561</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9120</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7874</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>26711</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9805</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11943</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23915</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12365</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>14766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19817</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>50626</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9468</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4212; 18192</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3511; 16643</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>19834; 36076</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4874; 16845</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1865; 12276</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>5832; 22245</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9763; 38755</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6272; 20172</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>8337; 25296</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12007; 30586</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>24984; 68955</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4022</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>4380</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2223</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>9428</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3558</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>7460</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>16765</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>7580</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8605</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9683</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>26192</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>956; 10467</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1054; 12060</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8743</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>5542; 15536</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1143; 9500</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1059; 12005</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2654; 17697</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>11694; 23241</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3308; 16089</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3262; 19353</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4477; 20440</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19503; 34281</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>92082</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>112174</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>113939</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>207358</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>132778</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>118770</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>157755</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>282196</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>224860</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>230944</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>271694</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>489554</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>75537; 111272</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>91137; 135348</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>93270; 138724</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>161243; 244335</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>110874; 157521</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>96570; 144198</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>133323; 185772</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>229379; 318533</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>193013; 253601</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>200265; 261234</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>241127; 308326</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>425087; 540954</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>